--- a/MarkBergRatColony_2019.xlsx
+++ b/MarkBergRatColony_2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stockton0-my.sharepoint.com/personal/melissa_laurino_stockton_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{242DA1F8-69C9-43F6-B673-B8FA9B45528F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACF3CFEC-E6D4-4969-B044-ADDC1784E005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{5DFE2188-524A-406B-89E1-046C2C6298F0}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2018" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019'!$A$1:$G$1001</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019'!$A$1:$J$1001</definedName>
   </definedNames>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -200,7 +200,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +220,20 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -251,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -274,6 +288,8 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,8 +661,8 @@
   </sheetPr>
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A485" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C502" sqref="C502"/>
+    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6176,7 +6192,7 @@
       </c>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="3">
+      <c r="A232" s="10">
         <f>A231+1</f>
         <v>43754</v>
       </c>
@@ -6200,7 +6216,7 @@
       </c>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="3">
+      <c r="A233" s="10">
         <f>A232</f>
         <v>43754</v>
       </c>
@@ -6224,7 +6240,7 @@
       </c>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="3">
+      <c r="A234" s="10">
         <f t="shared" ref="A234:A241" si="22">A233</f>
         <v>43754</v>
       </c>
@@ -6248,7 +6264,7 @@
       </c>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="3">
+      <c r="A235" s="10">
         <f t="shared" si="22"/>
         <v>43754</v>
       </c>
@@ -6272,7 +6288,7 @@
       </c>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="3">
+      <c r="A236" s="10">
         <f t="shared" si="22"/>
         <v>43754</v>
       </c>
@@ -6296,7 +6312,7 @@
       </c>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="3">
+      <c r="A237" s="10">
         <f t="shared" si="22"/>
         <v>43754</v>
       </c>
@@ -6320,7 +6336,7 @@
       </c>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="3">
+      <c r="A238" s="10">
         <f t="shared" si="22"/>
         <v>43754</v>
       </c>
@@ -6344,7 +6360,7 @@
       </c>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="3">
+      <c r="A239" s="10">
         <f t="shared" si="22"/>
         <v>43754</v>
       </c>
@@ -6368,7 +6384,7 @@
       </c>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="3">
+      <c r="A240" s="10">
         <f t="shared" si="22"/>
         <v>43754</v>
       </c>
@@ -6392,7 +6408,7 @@
       </c>
     </row>
     <row r="241" spans="1:7">
-      <c r="A241" s="3">
+      <c r="A241" s="10">
         <f t="shared" si="22"/>
         <v>43754</v>
       </c>
@@ -6416,7 +6432,7 @@
       </c>
     </row>
     <row r="242" spans="1:7">
-      <c r="A242" s="3">
+      <c r="A242" s="11">
         <f>A241+1</f>
         <v>43755</v>
       </c>
@@ -6465,7 +6481,7 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="3">
-        <f t="shared" ref="A244:A251" si="23">A243</f>
+        <f>A243</f>
         <v>43755</v>
       </c>
       <c r="B244" s="2">
@@ -6489,7 +6505,7 @@
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="A244:A251" si="23">A244</f>
         <v>43755</v>
       </c>
       <c r="B245" s="2">
@@ -12663,6 +12679,9 @@
       <c r="B502" s="2">
         <v>1</v>
       </c>
+      <c r="C502">
+        <v>454</v>
+      </c>
       <c r="D502" s="6" t="s">
         <v>9</v>
       </c>
@@ -12684,6 +12703,9 @@
       <c r="B503" s="2">
         <v>2</v>
       </c>
+      <c r="C503">
+        <v>410</v>
+      </c>
       <c r="D503" s="6" t="s">
         <v>9</v>
       </c>
@@ -12705,6 +12727,9 @@
       <c r="B504" s="2">
         <v>3</v>
       </c>
+      <c r="C504">
+        <v>401</v>
+      </c>
       <c r="D504" s="6" t="s">
         <v>9</v>
       </c>
@@ -12726,6 +12751,9 @@
       <c r="B505" s="2">
         <v>4</v>
       </c>
+      <c r="C505">
+        <v>385</v>
+      </c>
       <c r="D505" s="6" t="s">
         <v>9</v>
       </c>
@@ -12747,6 +12775,9 @@
       <c r="B506" s="2">
         <v>5</v>
       </c>
+      <c r="C506">
+        <v>436</v>
+      </c>
       <c r="D506" s="6" t="s">
         <v>9</v>
       </c>
@@ -12768,6 +12799,9 @@
       <c r="B507" s="2">
         <v>6</v>
       </c>
+      <c r="C507">
+        <v>390</v>
+      </c>
       <c r="D507" s="6" t="s">
         <v>9</v>
       </c>
@@ -12789,6 +12823,9 @@
       <c r="B508" s="2">
         <v>7</v>
       </c>
+      <c r="C508">
+        <v>466</v>
+      </c>
       <c r="D508" s="6" t="s">
         <v>9</v>
       </c>
@@ -12810,6 +12847,9 @@
       <c r="B509" s="2">
         <v>8</v>
       </c>
+      <c r="C509">
+        <v>261</v>
+      </c>
       <c r="D509" s="6" t="s">
         <v>24</v>
       </c>
@@ -12831,6 +12871,9 @@
       <c r="B510" s="2">
         <v>9</v>
       </c>
+      <c r="C510">
+        <v>233</v>
+      </c>
       <c r="D510" s="6" t="s">
         <v>24</v>
       </c>
@@ -12852,6 +12895,9 @@
       <c r="B511" s="2">
         <v>10</v>
       </c>
+      <c r="C511">
+        <v>256</v>
+      </c>
       <c r="D511" s="6" t="s">
         <v>24</v>
       </c>
@@ -12873,6 +12919,9 @@
       <c r="B512" s="2">
         <v>1</v>
       </c>
+      <c r="C512">
+        <v>457</v>
+      </c>
       <c r="D512" s="6" t="s">
         <v>9</v>
       </c>
@@ -12894,6 +12943,9 @@
       <c r="B513" s="2">
         <v>2</v>
       </c>
+      <c r="C513">
+        <v>408</v>
+      </c>
       <c r="D513" s="6" t="s">
         <v>9</v>
       </c>
@@ -12915,6 +12967,9 @@
       <c r="B514" s="2">
         <v>3</v>
       </c>
+      <c r="C514">
+        <v>412</v>
+      </c>
       <c r="D514" s="6" t="s">
         <v>9</v>
       </c>
@@ -12936,6 +12991,9 @@
       <c r="B515" s="2">
         <v>4</v>
       </c>
+      <c r="C515">
+        <v>390</v>
+      </c>
       <c r="D515" s="6" t="s">
         <v>9</v>
       </c>
@@ -12957,6 +13015,9 @@
       <c r="B516" s="2">
         <v>5</v>
       </c>
+      <c r="C516">
+        <v>435</v>
+      </c>
       <c r="D516" s="6" t="s">
         <v>9</v>
       </c>
@@ -12978,6 +13039,9 @@
       <c r="B517" s="2">
         <v>6</v>
       </c>
+      <c r="C517">
+        <v>389</v>
+      </c>
       <c r="D517" s="6" t="s">
         <v>9</v>
       </c>
@@ -12999,6 +13063,9 @@
       <c r="B518" s="2">
         <v>7</v>
       </c>
+      <c r="C518">
+        <v>460</v>
+      </c>
       <c r="D518" s="6" t="s">
         <v>9</v>
       </c>
@@ -13020,6 +13087,9 @@
       <c r="B519" s="2">
         <v>8</v>
       </c>
+      <c r="C519">
+        <v>258</v>
+      </c>
       <c r="D519" s="6" t="s">
         <v>24</v>
       </c>
@@ -13041,6 +13111,9 @@
       <c r="B520" s="2">
         <v>9</v>
       </c>
+      <c r="C520">
+        <v>231</v>
+      </c>
       <c r="D520" s="6" t="s">
         <v>24</v>
       </c>
@@ -13062,6 +13135,9 @@
       <c r="B521" s="2">
         <v>10</v>
       </c>
+      <c r="C521">
+        <v>254</v>
+      </c>
       <c r="D521" s="6" t="s">
         <v>24</v>
       </c>
@@ -13083,6 +13159,9 @@
       <c r="B522" s="2">
         <v>1</v>
       </c>
+      <c r="C522">
+        <v>454</v>
+      </c>
       <c r="D522" s="6" t="s">
         <v>9</v>
       </c>
@@ -13104,6 +13183,9 @@
       <c r="B523" s="2">
         <v>2</v>
       </c>
+      <c r="C523">
+        <v>416</v>
+      </c>
       <c r="D523" s="6" t="s">
         <v>9</v>
       </c>
@@ -13125,6 +13207,9 @@
       <c r="B524" s="2">
         <v>3</v>
       </c>
+      <c r="C524">
+        <v>420</v>
+      </c>
       <c r="D524" s="6" t="s">
         <v>9</v>
       </c>
@@ -13146,6 +13231,9 @@
       <c r="B525" s="2">
         <v>4</v>
       </c>
+      <c r="C525">
+        <v>395</v>
+      </c>
       <c r="D525" s="6" t="s">
         <v>9</v>
       </c>
@@ -13167,6 +13255,9 @@
       <c r="B526" s="2">
         <v>5</v>
       </c>
+      <c r="C526">
+        <v>439</v>
+      </c>
       <c r="D526" s="6" t="s">
         <v>9</v>
       </c>
@@ -13188,6 +13279,9 @@
       <c r="B527" s="2">
         <v>6</v>
       </c>
+      <c r="C527">
+        <v>392</v>
+      </c>
       <c r="D527" s="6" t="s">
         <v>9</v>
       </c>
@@ -13209,6 +13303,9 @@
       <c r="B528" s="2">
         <v>7</v>
       </c>
+      <c r="C528">
+        <v>467</v>
+      </c>
       <c r="D528" s="6" t="s">
         <v>9</v>
       </c>
@@ -13230,6 +13327,9 @@
       <c r="B529" s="2">
         <v>8</v>
       </c>
+      <c r="C529">
+        <v>265</v>
+      </c>
       <c r="D529" s="6" t="s">
         <v>24</v>
       </c>
@@ -13251,6 +13351,9 @@
       <c r="B530" s="2">
         <v>9</v>
       </c>
+      <c r="C530">
+        <v>232</v>
+      </c>
       <c r="D530" s="6" t="s">
         <v>24</v>
       </c>
@@ -13272,6 +13375,9 @@
       <c r="B531" s="2">
         <v>10</v>
       </c>
+      <c r="C531">
+        <v>254</v>
+      </c>
       <c r="D531" s="6" t="s">
         <v>24</v>
       </c>
@@ -13293,6 +13399,9 @@
       <c r="B532" s="2">
         <v>1</v>
       </c>
+      <c r="C532">
+        <v>455</v>
+      </c>
       <c r="D532" s="6" t="s">
         <v>9</v>
       </c>
@@ -13314,6 +13423,9 @@
       <c r="B533" s="2">
         <v>2</v>
       </c>
+      <c r="C533">
+        <v>409</v>
+      </c>
       <c r="D533" s="6" t="s">
         <v>9</v>
       </c>
@@ -13335,6 +13447,9 @@
       <c r="B534" s="2">
         <v>3</v>
       </c>
+      <c r="C534">
+        <v>410</v>
+      </c>
       <c r="D534" s="6" t="s">
         <v>9</v>
       </c>
@@ -13356,6 +13471,9 @@
       <c r="B535" s="2">
         <v>4</v>
       </c>
+      <c r="C535">
+        <v>388</v>
+      </c>
       <c r="D535" s="6" t="s">
         <v>9</v>
       </c>
@@ -13377,6 +13495,9 @@
       <c r="B536" s="2">
         <v>5</v>
       </c>
+      <c r="C536">
+        <v>434</v>
+      </c>
       <c r="D536" s="6" t="s">
         <v>9</v>
       </c>
@@ -13398,6 +13519,9 @@
       <c r="B537" s="2">
         <v>6</v>
       </c>
+      <c r="C537">
+        <v>390</v>
+      </c>
       <c r="D537" s="6" t="s">
         <v>9</v>
       </c>
@@ -13419,6 +13543,9 @@
       <c r="B538" s="2">
         <v>7</v>
       </c>
+      <c r="C538">
+        <v>462</v>
+      </c>
       <c r="D538" s="6" t="s">
         <v>9</v>
       </c>
@@ -13440,6 +13567,9 @@
       <c r="B539" s="2">
         <v>8</v>
       </c>
+      <c r="C539">
+        <v>263</v>
+      </c>
       <c r="D539" s="6" t="s">
         <v>24</v>
       </c>
@@ -13461,6 +13591,9 @@
       <c r="B540" s="2">
         <v>9</v>
       </c>
+      <c r="C540">
+        <v>229</v>
+      </c>
       <c r="D540" s="6" t="s">
         <v>24</v>
       </c>
@@ -13482,6 +13615,9 @@
       <c r="B541" s="2">
         <v>10</v>
       </c>
+      <c r="C541">
+        <v>251</v>
+      </c>
       <c r="D541" s="6" t="s">
         <v>24</v>
       </c>
@@ -23156,7 +23292,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1001" xr:uid="{0B6D77AB-0F33-4E46-A5AB-1FA0ACF1191E}"/>
+  <autoFilter ref="A1:J1001" xr:uid="{4175B118-A314-4858-8E35-521677B68BDE}"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="97" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/MarkBergRatColony_2019.xlsx
+++ b/MarkBergRatColony_2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22318"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stockton0-my.sharepoint.com/personal/melissa_laurino_stockton_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACF3CFEC-E6D4-4969-B044-ADDC1784E005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15210CF9-E5A7-4366-BA92-0007C24C71A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{5DFE2188-524A-406B-89E1-046C2C6298F0}"/>
   </bookViews>
@@ -661,8 +661,8 @@
   </sheetPr>
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C223" sqref="C223"/>
+    <sheetView tabSelected="1" topLeftCell="A603" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C632" sqref="C632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13639,6 +13639,9 @@
       <c r="B542" s="2">
         <v>1</v>
       </c>
+      <c r="C542">
+        <v>451</v>
+      </c>
       <c r="D542" s="6" t="s">
         <v>9</v>
       </c>
@@ -13660,6 +13663,9 @@
       <c r="B543" s="2">
         <v>2</v>
       </c>
+      <c r="C543">
+        <v>407</v>
+      </c>
       <c r="D543" s="6" t="s">
         <v>9</v>
       </c>
@@ -13681,6 +13687,9 @@
       <c r="B544" s="2">
         <v>3</v>
       </c>
+      <c r="C544">
+        <v>414</v>
+      </c>
       <c r="D544" s="6" t="s">
         <v>9</v>
       </c>
@@ -13702,6 +13711,9 @@
       <c r="B545" s="2">
         <v>4</v>
       </c>
+      <c r="C545">
+        <v>388</v>
+      </c>
       <c r="D545" s="6" t="s">
         <v>9</v>
       </c>
@@ -13723,6 +13735,9 @@
       <c r="B546" s="2">
         <v>5</v>
       </c>
+      <c r="C546">
+        <v>432</v>
+      </c>
       <c r="D546" s="6" t="s">
         <v>9</v>
       </c>
@@ -13744,6 +13759,9 @@
       <c r="B547" s="2">
         <v>6</v>
       </c>
+      <c r="C547">
+        <v>389</v>
+      </c>
       <c r="D547" s="6" t="s">
         <v>9</v>
       </c>
@@ -13765,6 +13783,9 @@
       <c r="B548" s="2">
         <v>7</v>
       </c>
+      <c r="C548">
+        <v>463</v>
+      </c>
       <c r="D548" s="6" t="s">
         <v>9</v>
       </c>
@@ -13786,6 +13807,9 @@
       <c r="B549" s="2">
         <v>8</v>
       </c>
+      <c r="C549">
+        <v>262</v>
+      </c>
       <c r="D549" s="6" t="s">
         <v>24</v>
       </c>
@@ -13807,6 +13831,9 @@
       <c r="B550" s="2">
         <v>9</v>
       </c>
+      <c r="C550">
+        <v>228</v>
+      </c>
       <c r="D550" s="6" t="s">
         <v>24</v>
       </c>
@@ -13828,6 +13855,9 @@
       <c r="B551" s="2">
         <v>10</v>
       </c>
+      <c r="C551">
+        <v>253</v>
+      </c>
       <c r="D551" s="6" t="s">
         <v>24</v>
       </c>
@@ -13849,6 +13879,9 @@
       <c r="B552" s="2">
         <v>1</v>
       </c>
+      <c r="C552">
+        <v>447</v>
+      </c>
       <c r="D552" s="6" t="s">
         <v>9</v>
       </c>
@@ -13870,6 +13903,9 @@
       <c r="B553" s="2">
         <v>2</v>
       </c>
+      <c r="C553">
+        <v>407</v>
+      </c>
       <c r="D553" s="6" t="s">
         <v>9</v>
       </c>
@@ -13891,6 +13927,9 @@
       <c r="B554" s="2">
         <v>3</v>
       </c>
+      <c r="C554">
+        <v>412</v>
+      </c>
       <c r="D554" s="6" t="s">
         <v>9</v>
       </c>
@@ -13912,6 +13951,9 @@
       <c r="B555" s="2">
         <v>4</v>
       </c>
+      <c r="C555">
+        <v>388</v>
+      </c>
       <c r="D555" s="6" t="s">
         <v>9</v>
       </c>
@@ -13933,6 +13975,9 @@
       <c r="B556" s="2">
         <v>5</v>
       </c>
+      <c r="C556">
+        <v>431</v>
+      </c>
       <c r="D556" s="6" t="s">
         <v>9</v>
       </c>
@@ -13954,6 +13999,9 @@
       <c r="B557" s="2">
         <v>6</v>
       </c>
+      <c r="C557">
+        <v>387</v>
+      </c>
       <c r="D557" s="6" t="s">
         <v>9</v>
       </c>
@@ -13975,6 +14023,9 @@
       <c r="B558" s="2">
         <v>7</v>
       </c>
+      <c r="C558">
+        <v>464</v>
+      </c>
       <c r="D558" s="6" t="s">
         <v>9</v>
       </c>
@@ -13996,6 +14047,9 @@
       <c r="B559" s="2">
         <v>8</v>
       </c>
+      <c r="C559">
+        <v>262</v>
+      </c>
       <c r="D559" s="6" t="s">
         <v>24</v>
       </c>
@@ -14017,6 +14071,9 @@
       <c r="B560" s="2">
         <v>9</v>
       </c>
+      <c r="C560">
+        <v>228</v>
+      </c>
       <c r="D560" s="6" t="s">
         <v>24</v>
       </c>
@@ -14038,6 +14095,9 @@
       <c r="B561" s="2">
         <v>10</v>
       </c>
+      <c r="C561">
+        <v>253</v>
+      </c>
       <c r="D561" s="6" t="s">
         <v>24</v>
       </c>
@@ -14059,6 +14119,9 @@
       <c r="B562" s="2">
         <v>1</v>
       </c>
+      <c r="C562">
+        <v>443</v>
+      </c>
       <c r="D562" s="6" t="s">
         <v>9</v>
       </c>
@@ -14080,6 +14143,9 @@
       <c r="B563" s="2">
         <v>2</v>
       </c>
+      <c r="C563">
+        <v>404</v>
+      </c>
       <c r="D563" s="6" t="s">
         <v>9</v>
       </c>
@@ -14101,6 +14167,9 @@
       <c r="B564" s="2">
         <v>3</v>
       </c>
+      <c r="C564">
+        <v>411</v>
+      </c>
       <c r="D564" s="6" t="s">
         <v>9</v>
       </c>
@@ -14122,6 +14191,9 @@
       <c r="B565" s="2">
         <v>4</v>
       </c>
+      <c r="C565">
+        <v>390</v>
+      </c>
       <c r="D565" s="6" t="s">
         <v>9</v>
       </c>
@@ -14143,6 +14215,9 @@
       <c r="B566" s="2">
         <v>5</v>
       </c>
+      <c r="C566">
+        <v>430</v>
+      </c>
       <c r="D566" s="6" t="s">
         <v>9</v>
       </c>
@@ -14164,6 +14239,9 @@
       <c r="B567" s="2">
         <v>6</v>
       </c>
+      <c r="C567">
+        <v>385</v>
+      </c>
       <c r="D567" s="6" t="s">
         <v>9</v>
       </c>
@@ -14185,6 +14263,9 @@
       <c r="B568" s="2">
         <v>7</v>
       </c>
+      <c r="C568">
+        <v>463</v>
+      </c>
       <c r="D568" s="6" t="s">
         <v>9</v>
       </c>
@@ -14206,6 +14287,9 @@
       <c r="B569" s="2">
         <v>8</v>
       </c>
+      <c r="C569">
+        <v>261</v>
+      </c>
       <c r="D569" s="6" t="s">
         <v>24</v>
       </c>
@@ -14227,6 +14311,9 @@
       <c r="B570" s="2">
         <v>9</v>
       </c>
+      <c r="C570">
+        <v>229</v>
+      </c>
       <c r="D570" s="6" t="s">
         <v>24</v>
       </c>
@@ -14248,6 +14335,9 @@
       <c r="B571" s="2">
         <v>10</v>
       </c>
+      <c r="C571">
+        <v>252</v>
+      </c>
       <c r="D571" s="6" t="s">
         <v>24</v>
       </c>
@@ -14269,6 +14359,9 @@
       <c r="B572" s="2">
         <v>1</v>
       </c>
+      <c r="C572">
+        <v>444</v>
+      </c>
       <c r="D572" s="6" t="s">
         <v>9</v>
       </c>
@@ -14290,6 +14383,9 @@
       <c r="B573" s="2">
         <v>2</v>
       </c>
+      <c r="C573">
+        <v>403</v>
+      </c>
       <c r="D573" s="6" t="s">
         <v>9</v>
       </c>
@@ -14311,6 +14407,9 @@
       <c r="B574" s="2">
         <v>3</v>
       </c>
+      <c r="C574">
+        <v>408</v>
+      </c>
       <c r="D574" s="6" t="s">
         <v>9</v>
       </c>
@@ -14332,6 +14431,9 @@
       <c r="B575" s="2">
         <v>4</v>
       </c>
+      <c r="C575">
+        <v>394</v>
+      </c>
       <c r="D575" s="6" t="s">
         <v>9</v>
       </c>
@@ -14353,6 +14455,9 @@
       <c r="B576" s="2">
         <v>5</v>
       </c>
+      <c r="C576">
+        <v>436</v>
+      </c>
       <c r="D576" s="6" t="s">
         <v>9</v>
       </c>
@@ -14374,6 +14479,9 @@
       <c r="B577" s="2">
         <v>6</v>
       </c>
+      <c r="C577">
+        <v>390</v>
+      </c>
       <c r="D577" s="6" t="s">
         <v>9</v>
       </c>
@@ -14395,6 +14503,9 @@
       <c r="B578" s="2">
         <v>7</v>
       </c>
+      <c r="C578">
+        <v>466</v>
+      </c>
       <c r="D578" s="6" t="s">
         <v>9</v>
       </c>
@@ -14416,6 +14527,9 @@
       <c r="B579" s="2">
         <v>8</v>
       </c>
+      <c r="C579">
+        <v>262</v>
+      </c>
       <c r="D579" s="6" t="s">
         <v>24</v>
       </c>
@@ -14437,6 +14551,9 @@
       <c r="B580" s="2">
         <v>9</v>
       </c>
+      <c r="C580">
+        <v>227</v>
+      </c>
       <c r="D580" s="6" t="s">
         <v>24</v>
       </c>
@@ -14458,6 +14575,9 @@
       <c r="B581" s="2">
         <v>10</v>
       </c>
+      <c r="C581">
+        <v>246</v>
+      </c>
       <c r="D581" s="6" t="s">
         <v>24</v>
       </c>
@@ -14479,6 +14599,9 @@
       <c r="B582" s="2">
         <v>1</v>
       </c>
+      <c r="C582">
+        <v>444</v>
+      </c>
       <c r="D582" s="6" t="s">
         <v>9</v>
       </c>
@@ -14500,6 +14623,9 @@
       <c r="B583" s="2">
         <v>2</v>
       </c>
+      <c r="C583">
+        <v>406</v>
+      </c>
       <c r="D583" s="6" t="s">
         <v>9</v>
       </c>
@@ -14521,6 +14647,9 @@
       <c r="B584" s="2">
         <v>3</v>
       </c>
+      <c r="C584">
+        <v>405</v>
+      </c>
       <c r="D584" s="6" t="s">
         <v>9</v>
       </c>
@@ -14542,6 +14671,9 @@
       <c r="B585" s="2">
         <v>4</v>
       </c>
+      <c r="C585">
+        <v>394</v>
+      </c>
       <c r="D585" s="6" t="s">
         <v>9</v>
       </c>
@@ -14563,6 +14695,9 @@
       <c r="B586" s="2">
         <v>5</v>
       </c>
+      <c r="C586">
+        <v>434</v>
+      </c>
       <c r="D586" s="6" t="s">
         <v>9</v>
       </c>
@@ -14584,6 +14719,9 @@
       <c r="B587" s="2">
         <v>6</v>
       </c>
+      <c r="C587">
+        <v>389</v>
+      </c>
       <c r="D587" s="6" t="s">
         <v>9</v>
       </c>
@@ -14605,6 +14743,9 @@
       <c r="B588" s="2">
         <v>7</v>
       </c>
+      <c r="C588">
+        <v>463</v>
+      </c>
       <c r="D588" s="6" t="s">
         <v>9</v>
       </c>
@@ -14626,6 +14767,9 @@
       <c r="B589" s="2">
         <v>8</v>
       </c>
+      <c r="C589">
+        <v>261</v>
+      </c>
       <c r="D589" s="6" t="s">
         <v>24</v>
       </c>
@@ -14647,6 +14791,9 @@
       <c r="B590" s="2">
         <v>9</v>
       </c>
+      <c r="C590">
+        <v>226</v>
+      </c>
       <c r="D590" s="6" t="s">
         <v>24</v>
       </c>
@@ -14668,6 +14815,9 @@
       <c r="B591" s="2">
         <v>10</v>
       </c>
+      <c r="C591">
+        <v>246</v>
+      </c>
       <c r="D591" s="6" t="s">
         <v>24</v>
       </c>
@@ -14689,6 +14839,9 @@
       <c r="B592" s="2">
         <v>1</v>
       </c>
+      <c r="C592">
+        <v>437</v>
+      </c>
       <c r="D592" s="6" t="s">
         <v>9</v>
       </c>
@@ -14710,6 +14863,9 @@
       <c r="B593" s="2">
         <v>2</v>
       </c>
+      <c r="C593">
+        <v>402</v>
+      </c>
       <c r="D593" s="6" t="s">
         <v>9</v>
       </c>
@@ -14731,6 +14887,9 @@
       <c r="B594" s="2">
         <v>3</v>
       </c>
+      <c r="C594">
+        <v>396</v>
+      </c>
       <c r="D594" s="6" t="s">
         <v>9</v>
       </c>
@@ -14752,6 +14911,9 @@
       <c r="B595" s="2">
         <v>4</v>
       </c>
+      <c r="C595">
+        <v>398</v>
+      </c>
       <c r="D595" s="6" t="s">
         <v>9</v>
       </c>
@@ -14773,6 +14935,9 @@
       <c r="B596" s="2">
         <v>5</v>
       </c>
+      <c r="C596">
+        <v>432</v>
+      </c>
       <c r="D596" s="6" t="s">
         <v>9</v>
       </c>
@@ -14794,6 +14959,9 @@
       <c r="B597" s="2">
         <v>6</v>
       </c>
+      <c r="C597">
+        <v>387</v>
+      </c>
       <c r="D597" s="6" t="s">
         <v>9</v>
       </c>
@@ -14815,6 +14983,9 @@
       <c r="B598" s="2">
         <v>7</v>
       </c>
+      <c r="C598">
+        <v>458</v>
+      </c>
       <c r="D598" s="6" t="s">
         <v>9</v>
       </c>
@@ -14836,6 +15007,9 @@
       <c r="B599" s="2">
         <v>8</v>
       </c>
+      <c r="C599">
+        <v>259</v>
+      </c>
       <c r="D599" s="6" t="s">
         <v>24</v>
       </c>
@@ -14857,6 +15031,9 @@
       <c r="B600" s="2">
         <v>9</v>
       </c>
+      <c r="C600">
+        <v>222</v>
+      </c>
       <c r="D600" s="6" t="s">
         <v>24</v>
       </c>
@@ -14878,6 +15055,9 @@
       <c r="B601" s="2">
         <v>10</v>
       </c>
+      <c r="C601">
+        <v>242</v>
+      </c>
       <c r="D601" s="6" t="s">
         <v>24</v>
       </c>
@@ -14899,6 +15079,9 @@
       <c r="B602" s="2">
         <v>1</v>
       </c>
+      <c r="C602">
+        <v>440</v>
+      </c>
       <c r="D602" s="6" t="s">
         <v>9</v>
       </c>
@@ -14920,6 +15103,9 @@
       <c r="B603" s="2">
         <v>2</v>
       </c>
+      <c r="C603">
+        <v>409</v>
+      </c>
       <c r="D603" s="6" t="s">
         <v>9</v>
       </c>
@@ -14941,6 +15127,9 @@
       <c r="B604" s="2">
         <v>3</v>
       </c>
+      <c r="C604">
+        <v>393</v>
+      </c>
       <c r="D604" s="6" t="s">
         <v>9</v>
       </c>
@@ -14962,6 +15151,9 @@
       <c r="B605" s="2">
         <v>4</v>
       </c>
+      <c r="C605">
+        <v>390</v>
+      </c>
       <c r="D605" s="6" t="s">
         <v>9</v>
       </c>
@@ -14983,6 +15175,9 @@
       <c r="B606" s="2">
         <v>5</v>
       </c>
+      <c r="C606">
+        <v>430</v>
+      </c>
       <c r="D606" s="6" t="s">
         <v>9</v>
       </c>
@@ -15004,6 +15199,9 @@
       <c r="B607" s="2">
         <v>6</v>
       </c>
+      <c r="C607">
+        <v>384</v>
+      </c>
       <c r="D607" s="6" t="s">
         <v>9</v>
       </c>
@@ -15025,6 +15223,9 @@
       <c r="B608" s="2">
         <v>7</v>
       </c>
+      <c r="C608">
+        <v>459</v>
+      </c>
       <c r="D608" s="6" t="s">
         <v>9</v>
       </c>
@@ -15046,6 +15247,9 @@
       <c r="B609" s="2">
         <v>8</v>
       </c>
+      <c r="C609">
+        <v>256</v>
+      </c>
       <c r="D609" s="6" t="s">
         <v>24</v>
       </c>
@@ -15067,6 +15271,9 @@
       <c r="B610" s="2">
         <v>9</v>
       </c>
+      <c r="C610">
+        <v>223</v>
+      </c>
       <c r="D610" s="6" t="s">
         <v>24</v>
       </c>
@@ -15088,6 +15295,9 @@
       <c r="B611" s="2">
         <v>10</v>
       </c>
+      <c r="C611">
+        <v>245</v>
+      </c>
       <c r="D611" s="6" t="s">
         <v>24</v>
       </c>
@@ -15109,6 +15319,9 @@
       <c r="B612" s="2">
         <v>1</v>
       </c>
+      <c r="C612">
+        <v>442</v>
+      </c>
       <c r="D612" s="6" t="s">
         <v>9</v>
       </c>
@@ -15130,6 +15343,9 @@
       <c r="B613" s="2">
         <v>2</v>
       </c>
+      <c r="C613">
+        <v>407</v>
+      </c>
       <c r="D613" s="6" t="s">
         <v>9</v>
       </c>
@@ -15151,6 +15367,9 @@
       <c r="B614" s="2">
         <v>3</v>
       </c>
+      <c r="C614">
+        <v>394</v>
+      </c>
       <c r="D614" s="6" t="s">
         <v>9</v>
       </c>
@@ -15172,6 +15391,9 @@
       <c r="B615" s="2">
         <v>4</v>
       </c>
+      <c r="C615">
+        <v>392</v>
+      </c>
       <c r="D615" s="6" t="s">
         <v>9</v>
       </c>
@@ -15193,6 +15415,9 @@
       <c r="B616" s="2">
         <v>5</v>
       </c>
+      <c r="C616">
+        <v>430</v>
+      </c>
       <c r="D616" s="6" t="s">
         <v>9</v>
       </c>
@@ -15214,6 +15439,9 @@
       <c r="B617" s="2">
         <v>6</v>
       </c>
+      <c r="C617">
+        <v>386</v>
+      </c>
       <c r="D617" s="6" t="s">
         <v>9</v>
       </c>
@@ -15235,6 +15463,9 @@
       <c r="B618" s="2">
         <v>7</v>
       </c>
+      <c r="C618">
+        <v>460</v>
+      </c>
       <c r="D618" s="6" t="s">
         <v>9</v>
       </c>
@@ -15256,6 +15487,9 @@
       <c r="B619" s="2">
         <v>8</v>
       </c>
+      <c r="C619">
+        <v>256</v>
+      </c>
       <c r="D619" s="6" t="s">
         <v>24</v>
       </c>
@@ -15277,6 +15511,9 @@
       <c r="B620" s="2">
         <v>9</v>
       </c>
+      <c r="C620">
+        <v>221</v>
+      </c>
       <c r="D620" s="6" t="s">
         <v>24</v>
       </c>
@@ -15298,6 +15535,9 @@
       <c r="B621" s="2">
         <v>10</v>
       </c>
+      <c r="C621">
+        <v>245</v>
+      </c>
       <c r="D621" s="6" t="s">
         <v>24</v>
       </c>
@@ -15319,6 +15559,9 @@
       <c r="B622" s="2">
         <v>1</v>
       </c>
+      <c r="C622">
+        <v>443</v>
+      </c>
       <c r="D622" s="6" t="s">
         <v>9</v>
       </c>
@@ -15340,6 +15583,9 @@
       <c r="B623" s="2">
         <v>2</v>
       </c>
+      <c r="C623">
+        <v>410</v>
+      </c>
       <c r="D623" s="6" t="s">
         <v>9</v>
       </c>
@@ -15361,6 +15607,9 @@
       <c r="B624" s="2">
         <v>3</v>
       </c>
+      <c r="C624">
+        <v>394</v>
+      </c>
       <c r="D624" s="6" t="s">
         <v>9</v>
       </c>
@@ -15382,6 +15631,9 @@
       <c r="B625" s="2">
         <v>4</v>
       </c>
+      <c r="C625">
+        <v>392</v>
+      </c>
       <c r="D625" s="6" t="s">
         <v>9</v>
       </c>
@@ -15403,6 +15655,9 @@
       <c r="B626" s="2">
         <v>5</v>
       </c>
+      <c r="C626">
+        <v>432</v>
+      </c>
       <c r="D626" s="6" t="s">
         <v>9</v>
       </c>
@@ -15424,6 +15679,9 @@
       <c r="B627" s="2">
         <v>6</v>
       </c>
+      <c r="C627">
+        <v>383</v>
+      </c>
       <c r="D627" s="6" t="s">
         <v>9</v>
       </c>
@@ -15445,6 +15703,9 @@
       <c r="B628" s="2">
         <v>7</v>
       </c>
+      <c r="C628">
+        <v>464</v>
+      </c>
       <c r="D628" s="6" t="s">
         <v>9</v>
       </c>
@@ -15466,6 +15727,9 @@
       <c r="B629" s="2">
         <v>8</v>
       </c>
+      <c r="C629">
+        <v>257</v>
+      </c>
       <c r="D629" s="6" t="s">
         <v>24</v>
       </c>
@@ -15487,6 +15751,9 @@
       <c r="B630" s="2">
         <v>9</v>
       </c>
+      <c r="C630">
+        <v>220</v>
+      </c>
       <c r="D630" s="6" t="s">
         <v>24</v>
       </c>
@@ -15507,6 +15774,9 @@
       </c>
       <c r="B631" s="2">
         <v>10</v>
+      </c>
+      <c r="C631">
+        <v>244</v>
       </c>
       <c r="D631" s="6" t="s">
         <v>24</v>

--- a/MarkBergRatColony_2019.xlsx
+++ b/MarkBergRatColony_2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stockton0-my.sharepoint.com/personal/melissa_laurino_stockton_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15210CF9-E5A7-4366-BA92-0007C24C71A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAC925B5-A9E1-4772-B4C9-9457270B2AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{5DFE2188-524A-406B-89E1-046C2C6298F0}"/>
   </bookViews>
@@ -661,8 +661,8 @@
   </sheetPr>
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A603" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C632" sqref="C632"/>
+    <sheetView tabSelected="1" topLeftCell="A656" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C672" sqref="C672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15799,6 +15799,9 @@
       <c r="B632" s="2">
         <v>1</v>
       </c>
+      <c r="C632">
+        <v>439</v>
+      </c>
       <c r="D632" s="6" t="s">
         <v>9</v>
       </c>
@@ -15820,6 +15823,9 @@
       <c r="B633" s="2">
         <v>2</v>
       </c>
+      <c r="C633">
+        <v>407</v>
+      </c>
       <c r="D633" s="6" t="s">
         <v>9</v>
       </c>
@@ -15841,6 +15847,9 @@
       <c r="B634" s="2">
         <v>3</v>
       </c>
+      <c r="C634">
+        <v>392</v>
+      </c>
       <c r="D634" s="6" t="s">
         <v>9</v>
       </c>
@@ -15862,6 +15871,9 @@
       <c r="B635" s="2">
         <v>4</v>
       </c>
+      <c r="C635">
+        <v>389</v>
+      </c>
       <c r="D635" s="6" t="s">
         <v>9</v>
       </c>
@@ -15883,6 +15895,9 @@
       <c r="B636" s="2">
         <v>5</v>
       </c>
+      <c r="C636">
+        <v>429</v>
+      </c>
       <c r="D636" s="6" t="s">
         <v>9</v>
       </c>
@@ -15904,6 +15919,9 @@
       <c r="B637" s="2">
         <v>6</v>
       </c>
+      <c r="C637">
+        <v>383</v>
+      </c>
       <c r="D637" s="6" t="s">
         <v>9</v>
       </c>
@@ -15925,6 +15943,9 @@
       <c r="B638" s="2">
         <v>7</v>
       </c>
+      <c r="C638">
+        <v>461</v>
+      </c>
       <c r="D638" s="6" t="s">
         <v>9</v>
       </c>
@@ -15946,6 +15967,9 @@
       <c r="B639" s="2">
         <v>8</v>
       </c>
+      <c r="C639">
+        <v>253</v>
+      </c>
       <c r="D639" s="6" t="s">
         <v>24</v>
       </c>
@@ -15967,6 +15991,9 @@
       <c r="B640" s="2">
         <v>9</v>
       </c>
+      <c r="C640">
+        <v>219</v>
+      </c>
       <c r="D640" s="6" t="s">
         <v>24</v>
       </c>
@@ -15988,6 +16015,9 @@
       <c r="B641" s="2">
         <v>10</v>
       </c>
+      <c r="C641">
+        <v>244</v>
+      </c>
       <c r="D641" s="6" t="s">
         <v>24</v>
       </c>
@@ -16009,6 +16039,9 @@
       <c r="B642" s="2">
         <v>1</v>
       </c>
+      <c r="C642">
+        <v>439</v>
+      </c>
       <c r="D642" s="6" t="s">
         <v>9</v>
       </c>
@@ -16030,6 +16063,9 @@
       <c r="B643" s="2">
         <v>2</v>
       </c>
+      <c r="C643">
+        <v>407</v>
+      </c>
       <c r="D643" s="6" t="s">
         <v>9</v>
       </c>
@@ -16051,6 +16087,9 @@
       <c r="B644" s="2">
         <v>3</v>
       </c>
+      <c r="C644">
+        <v>392</v>
+      </c>
       <c r="D644" s="6" t="s">
         <v>9</v>
       </c>
@@ -16072,6 +16111,9 @@
       <c r="B645" s="2">
         <v>4</v>
       </c>
+      <c r="C645">
+        <v>389</v>
+      </c>
       <c r="D645" s="6" t="s">
         <v>9</v>
       </c>
@@ -16093,6 +16135,9 @@
       <c r="B646" s="2">
         <v>5</v>
       </c>
+      <c r="C646">
+        <v>429</v>
+      </c>
       <c r="D646" s="6" t="s">
         <v>9</v>
       </c>
@@ -16114,6 +16159,9 @@
       <c r="B647" s="2">
         <v>6</v>
       </c>
+      <c r="C647">
+        <v>383</v>
+      </c>
       <c r="D647" s="6" t="s">
         <v>9</v>
       </c>
@@ -16135,6 +16183,9 @@
       <c r="B648" s="2">
         <v>7</v>
       </c>
+      <c r="C648">
+        <v>461</v>
+      </c>
       <c r="D648" s="6" t="s">
         <v>9</v>
       </c>
@@ -16156,6 +16207,9 @@
       <c r="B649" s="2">
         <v>8</v>
       </c>
+      <c r="C649">
+        <v>253</v>
+      </c>
       <c r="D649" s="6" t="s">
         <v>24</v>
       </c>
@@ -16177,6 +16231,9 @@
       <c r="B650" s="2">
         <v>9</v>
       </c>
+      <c r="C650">
+        <v>219</v>
+      </c>
       <c r="D650" s="6" t="s">
         <v>24</v>
       </c>
@@ -16198,6 +16255,9 @@
       <c r="B651" s="2">
         <v>10</v>
       </c>
+      <c r="C651">
+        <v>244</v>
+      </c>
       <c r="D651" s="6" t="s">
         <v>24</v>
       </c>
@@ -16219,6 +16279,9 @@
       <c r="B652" s="2">
         <v>1</v>
       </c>
+      <c r="C652">
+        <v>439</v>
+      </c>
       <c r="D652" s="6" t="s">
         <v>9</v>
       </c>
@@ -16240,6 +16303,9 @@
       <c r="B653" s="2">
         <v>2</v>
       </c>
+      <c r="C653">
+        <v>401</v>
+      </c>
       <c r="D653" s="6" t="s">
         <v>9</v>
       </c>
@@ -16261,6 +16327,9 @@
       <c r="B654" s="2">
         <v>3</v>
       </c>
+      <c r="C654">
+        <v>388</v>
+      </c>
       <c r="D654" s="6" t="s">
         <v>9</v>
       </c>
@@ -16282,6 +16351,9 @@
       <c r="B655" s="2">
         <v>4</v>
       </c>
+      <c r="C655">
+        <v>390</v>
+      </c>
       <c r="D655" s="6" t="s">
         <v>9</v>
       </c>
@@ -16303,6 +16375,9 @@
       <c r="B656" s="2">
         <v>5</v>
       </c>
+      <c r="C656">
+        <v>427</v>
+      </c>
       <c r="D656" s="6" t="s">
         <v>9</v>
       </c>
@@ -16324,6 +16399,9 @@
       <c r="B657" s="2">
         <v>6</v>
       </c>
+      <c r="C657">
+        <v>377</v>
+      </c>
       <c r="D657" s="6" t="s">
         <v>9</v>
       </c>
@@ -16345,6 +16423,9 @@
       <c r="B658" s="2">
         <v>7</v>
       </c>
+      <c r="C658">
+        <v>452</v>
+      </c>
       <c r="D658" s="6" t="s">
         <v>9</v>
       </c>
@@ -16366,6 +16447,9 @@
       <c r="B659" s="2">
         <v>8</v>
       </c>
+      <c r="C659">
+        <v>251</v>
+      </c>
       <c r="D659" s="6" t="s">
         <v>24</v>
       </c>
@@ -16387,6 +16471,9 @@
       <c r="B660" s="2">
         <v>9</v>
       </c>
+      <c r="C660">
+        <v>216</v>
+      </c>
       <c r="D660" s="6" t="s">
         <v>24</v>
       </c>
@@ -16408,6 +16495,9 @@
       <c r="B661" s="2">
         <v>10</v>
       </c>
+      <c r="C661">
+        <v>237</v>
+      </c>
       <c r="D661" s="6" t="s">
         <v>24</v>
       </c>
@@ -16429,6 +16519,9 @@
       <c r="B662" s="2">
         <v>1</v>
       </c>
+      <c r="C662">
+        <v>448</v>
+      </c>
       <c r="D662" s="6" t="s">
         <v>9</v>
       </c>
@@ -16450,6 +16543,9 @@
       <c r="B663" s="2">
         <v>2</v>
       </c>
+      <c r="C663">
+        <v>420</v>
+      </c>
       <c r="D663" s="6" t="s">
         <v>9</v>
       </c>
@@ -16471,6 +16567,9 @@
       <c r="B664" s="2">
         <v>3</v>
       </c>
+      <c r="C664">
+        <v>400</v>
+      </c>
       <c r="D664" s="6" t="s">
         <v>9</v>
       </c>
@@ -16492,6 +16591,9 @@
       <c r="B665" s="2">
         <v>4</v>
       </c>
+      <c r="C665">
+        <v>401</v>
+      </c>
       <c r="D665" s="6" t="s">
         <v>9</v>
       </c>
@@ -16513,6 +16615,9 @@
       <c r="B666" s="2">
         <v>5</v>
       </c>
+      <c r="C666">
+        <v>438</v>
+      </c>
       <c r="D666" s="6" t="s">
         <v>9</v>
       </c>
@@ -16534,6 +16639,9 @@
       <c r="B667" s="2">
         <v>6</v>
       </c>
+      <c r="C667">
+        <v>383</v>
+      </c>
       <c r="D667" s="6" t="s">
         <v>9</v>
       </c>
@@ -16555,6 +16663,9 @@
       <c r="B668" s="2">
         <v>7</v>
       </c>
+      <c r="C668">
+        <v>464</v>
+      </c>
       <c r="D668" s="6" t="s">
         <v>9</v>
       </c>
@@ -16576,6 +16687,9 @@
       <c r="B669" s="2">
         <v>8</v>
       </c>
+      <c r="C669">
+        <v>261</v>
+      </c>
       <c r="D669" s="6" t="s">
         <v>24</v>
       </c>
@@ -16597,6 +16711,9 @@
       <c r="B670" s="2">
         <v>9</v>
       </c>
+      <c r="C670">
+        <v>223</v>
+      </c>
       <c r="D670" s="6" t="s">
         <v>24</v>
       </c>
@@ -16618,6 +16735,9 @@
       <c r="B671" s="2">
         <v>10</v>
       </c>
+      <c r="C671">
+        <v>248</v>
+      </c>
       <c r="D671" s="6" t="s">
         <v>24</v>
       </c>
@@ -16639,6 +16759,9 @@
       <c r="B672" s="2">
         <v>1</v>
       </c>
+      <c r="C672">
+        <v>442</v>
+      </c>
       <c r="D672" s="6" t="s">
         <v>9</v>
       </c>
@@ -16660,6 +16783,9 @@
       <c r="B673" s="2">
         <v>2</v>
       </c>
+      <c r="C673">
+        <v>407</v>
+      </c>
       <c r="D673" s="6" t="s">
         <v>9</v>
       </c>
@@ -16681,6 +16807,9 @@
       <c r="B674" s="2">
         <v>3</v>
       </c>
+      <c r="C674">
+        <v>396</v>
+      </c>
       <c r="D674" s="6" t="s">
         <v>9</v>
       </c>
@@ -16702,6 +16831,9 @@
       <c r="B675" s="2">
         <v>4</v>
       </c>
+      <c r="C675">
+        <v>390</v>
+      </c>
       <c r="D675" s="6" t="s">
         <v>9</v>
       </c>
@@ -16723,6 +16855,9 @@
       <c r="B676" s="2">
         <v>5</v>
       </c>
+      <c r="C676">
+        <v>424</v>
+      </c>
       <c r="D676" s="6" t="s">
         <v>9</v>
       </c>
@@ -16744,6 +16879,9 @@
       <c r="B677" s="2">
         <v>6</v>
       </c>
+      <c r="C677">
+        <v>379</v>
+      </c>
       <c r="D677" s="6" t="s">
         <v>9</v>
       </c>
@@ -16765,6 +16903,9 @@
       <c r="B678" s="2">
         <v>7</v>
       </c>
+      <c r="C678">
+        <v>462</v>
+      </c>
       <c r="D678" s="6" t="s">
         <v>9</v>
       </c>
@@ -16786,6 +16927,9 @@
       <c r="B679" s="2">
         <v>8</v>
       </c>
+      <c r="C679">
+        <v>256</v>
+      </c>
       <c r="D679" s="6" t="s">
         <v>24</v>
       </c>
@@ -16807,6 +16951,9 @@
       <c r="B680" s="2">
         <v>9</v>
       </c>
+      <c r="C680">
+        <v>220</v>
+      </c>
       <c r="D680" s="6" t="s">
         <v>24</v>
       </c>
@@ -16828,6 +16975,9 @@
       <c r="B681" s="2">
         <v>10</v>
       </c>
+      <c r="C681">
+        <v>239</v>
+      </c>
       <c r="D681" s="6" t="s">
         <v>24</v>
       </c>
@@ -16849,6 +16999,9 @@
       <c r="B682" s="2">
         <v>1</v>
       </c>
+      <c r="C682">
+        <v>449</v>
+      </c>
       <c r="D682" s="6" t="s">
         <v>9</v>
       </c>
@@ -16870,6 +17023,9 @@
       <c r="B683" s="2">
         <v>2</v>
       </c>
+      <c r="C683">
+        <v>413</v>
+      </c>
       <c r="D683" s="6" t="s">
         <v>9</v>
       </c>
@@ -16891,6 +17047,9 @@
       <c r="B684" s="2">
         <v>3</v>
       </c>
+      <c r="C684">
+        <v>395</v>
+      </c>
       <c r="D684" s="6" t="s">
         <v>9</v>
       </c>
@@ -16912,6 +17071,9 @@
       <c r="B685" s="2">
         <v>4</v>
       </c>
+      <c r="C685">
+        <v>392</v>
+      </c>
       <c r="D685" s="6" t="s">
         <v>9</v>
       </c>
@@ -16933,6 +17095,9 @@
       <c r="B686" s="2">
         <v>5</v>
       </c>
+      <c r="C686">
+        <v>430</v>
+      </c>
       <c r="D686" s="6" t="s">
         <v>9</v>
       </c>
@@ -16954,6 +17119,9 @@
       <c r="B687" s="2">
         <v>6</v>
       </c>
+      <c r="C687">
+        <v>381</v>
+      </c>
       <c r="D687" s="6" t="s">
         <v>9</v>
       </c>
@@ -16975,6 +17143,9 @@
       <c r="B688" s="2">
         <v>7</v>
       </c>
+      <c r="C688">
+        <v>460</v>
+      </c>
       <c r="D688" s="6" t="s">
         <v>9</v>
       </c>
@@ -16996,6 +17167,9 @@
       <c r="B689" s="2">
         <v>8</v>
       </c>
+      <c r="C689">
+        <v>252</v>
+      </c>
       <c r="D689" s="6" t="s">
         <v>24</v>
       </c>
@@ -17017,6 +17191,9 @@
       <c r="B690" s="2">
         <v>9</v>
       </c>
+      <c r="C690">
+        <v>218</v>
+      </c>
       <c r="D690" s="6" t="s">
         <v>24</v>
       </c>
@@ -17038,6 +17215,9 @@
       <c r="B691" s="2">
         <v>10</v>
       </c>
+      <c r="C691">
+        <v>239</v>
+      </c>
       <c r="D691" s="6" t="s">
         <v>24</v>
       </c>
@@ -17059,6 +17239,9 @@
       <c r="B692" s="2">
         <v>1</v>
       </c>
+      <c r="C692">
+        <v>444</v>
+      </c>
       <c r="D692" s="6" t="s">
         <v>9</v>
       </c>
@@ -17080,6 +17263,9 @@
       <c r="B693" s="2">
         <v>2</v>
       </c>
+      <c r="C693">
+        <v>412</v>
+      </c>
       <c r="D693" s="6" t="s">
         <v>9</v>
       </c>
@@ -17101,6 +17287,9 @@
       <c r="B694" s="2">
         <v>3</v>
       </c>
+      <c r="C694">
+        <v>394</v>
+      </c>
       <c r="D694" s="6" t="s">
         <v>9</v>
       </c>
@@ -17122,6 +17311,9 @@
       <c r="B695" s="2">
         <v>4</v>
       </c>
+      <c r="C695">
+        <v>388</v>
+      </c>
       <c r="D695" s="6" t="s">
         <v>9</v>
       </c>
@@ -17143,6 +17335,9 @@
       <c r="B696" s="2">
         <v>5</v>
       </c>
+      <c r="C696">
+        <v>429</v>
+      </c>
       <c r="D696" s="6" t="s">
         <v>9</v>
       </c>
@@ -17164,6 +17359,9 @@
       <c r="B697" s="2">
         <v>6</v>
       </c>
+      <c r="C697">
+        <v>379</v>
+      </c>
       <c r="D697" s="6" t="s">
         <v>9</v>
       </c>
@@ -17185,6 +17383,9 @@
       <c r="B698" s="2">
         <v>7</v>
       </c>
+      <c r="C698">
+        <v>461</v>
+      </c>
       <c r="D698" s="6" t="s">
         <v>9</v>
       </c>
@@ -17206,6 +17407,9 @@
       <c r="B699" s="2">
         <v>8</v>
       </c>
+      <c r="C699">
+        <v>250</v>
+      </c>
       <c r="D699" s="6" t="s">
         <v>24</v>
       </c>
@@ -17227,6 +17431,9 @@
       <c r="B700" s="2">
         <v>9</v>
       </c>
+      <c r="C700">
+        <v>218</v>
+      </c>
       <c r="D700" s="6" t="s">
         <v>24</v>
       </c>
@@ -17247,6 +17454,9 @@
       </c>
       <c r="B701" s="2">
         <v>10</v>
+      </c>
+      <c r="C701">
+        <v>239</v>
       </c>
       <c r="D701" s="6" t="s">
         <v>24</v>

--- a/MarkBergRatColony_2019.xlsx
+++ b/MarkBergRatColony_2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stockton0-my.sharepoint.com/personal/melissa_laurino_stockton_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAC925B5-A9E1-4772-B4C9-9457270B2AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F0B3592-3EB9-4C12-B734-7A9253B6E138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{5DFE2188-524A-406B-89E1-046C2C6298F0}"/>
   </bookViews>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -661,8 +663,8 @@
   </sheetPr>
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A656" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C672" sqref="C672"/>
+    <sheetView tabSelected="1" topLeftCell="A701" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C732" sqref="C732"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17479,6 +17481,9 @@
       <c r="B702" s="2">
         <v>1</v>
       </c>
+      <c r="C702">
+        <v>435</v>
+      </c>
       <c r="D702" s="6" t="s">
         <v>9</v>
       </c>
@@ -17500,6 +17505,9 @@
       <c r="B703" s="2">
         <v>2</v>
       </c>
+      <c r="C703">
+        <v>407</v>
+      </c>
       <c r="D703" s="6" t="s">
         <v>9</v>
       </c>
@@ -17521,6 +17529,9 @@
       <c r="B704" s="2">
         <v>3</v>
       </c>
+      <c r="C704">
+        <v>392</v>
+      </c>
       <c r="D704" s="6" t="s">
         <v>9</v>
       </c>
@@ -17542,6 +17553,9 @@
       <c r="B705" s="2">
         <v>4</v>
       </c>
+      <c r="C705">
+        <v>384</v>
+      </c>
       <c r="D705" s="6" t="s">
         <v>9</v>
       </c>
@@ -17563,6 +17577,9 @@
       <c r="B706" s="2">
         <v>5</v>
       </c>
+      <c r="C706">
+        <v>423</v>
+      </c>
       <c r="D706" s="6" t="s">
         <v>9</v>
       </c>
@@ -17584,6 +17601,9 @@
       <c r="B707" s="2">
         <v>6</v>
       </c>
+      <c r="C707">
+        <v>373</v>
+      </c>
       <c r="D707" s="6" t="s">
         <v>9</v>
       </c>
@@ -17605,6 +17625,9 @@
       <c r="B708" s="2">
         <v>7</v>
       </c>
+      <c r="C708">
+        <v>455</v>
+      </c>
       <c r="D708" s="6" t="s">
         <v>9</v>
       </c>
@@ -17626,6 +17649,9 @@
       <c r="B709" s="2">
         <v>8</v>
       </c>
+      <c r="C709">
+        <v>248</v>
+      </c>
       <c r="D709" s="6" t="s">
         <v>24</v>
       </c>
@@ -17647,6 +17673,9 @@
       <c r="B710" s="2">
         <v>9</v>
       </c>
+      <c r="C710">
+        <v>212</v>
+      </c>
       <c r="D710" s="6" t="s">
         <v>24</v>
       </c>
@@ -17668,6 +17697,9 @@
       <c r="B711" s="2">
         <v>10</v>
       </c>
+      <c r="C711">
+        <v>236</v>
+      </c>
       <c r="D711" s="6" t="s">
         <v>24</v>
       </c>
@@ -17689,6 +17721,9 @@
       <c r="B712" s="2">
         <v>1</v>
       </c>
+      <c r="C712">
+        <v>438</v>
+      </c>
       <c r="D712" s="6" t="s">
         <v>9</v>
       </c>
@@ -17710,6 +17745,9 @@
       <c r="B713" s="2">
         <v>2</v>
       </c>
+      <c r="C713">
+        <v>405</v>
+      </c>
       <c r="D713" s="6" t="s">
         <v>9</v>
       </c>
@@ -17731,6 +17769,9 @@
       <c r="B714" s="2">
         <v>3</v>
       </c>
+      <c r="C714">
+        <v>391</v>
+      </c>
       <c r="D714" s="6" t="s">
         <v>9</v>
       </c>
@@ -17752,6 +17793,9 @@
       <c r="B715" s="2">
         <v>4</v>
       </c>
+      <c r="C715">
+        <v>386</v>
+      </c>
       <c r="D715" s="6" t="s">
         <v>9</v>
       </c>
@@ -17773,6 +17817,9 @@
       <c r="B716" s="2">
         <v>5</v>
       </c>
+      <c r="C716">
+        <v>427</v>
+      </c>
       <c r="D716" s="6" t="s">
         <v>9</v>
       </c>
@@ -17794,6 +17841,9 @@
       <c r="B717" s="2">
         <v>6</v>
       </c>
+      <c r="C717">
+        <v>375</v>
+      </c>
       <c r="D717" s="6" t="s">
         <v>9</v>
       </c>
@@ -17815,6 +17865,9 @@
       <c r="B718" s="2">
         <v>7</v>
       </c>
+      <c r="C718">
+        <v>456</v>
+      </c>
       <c r="D718" s="6" t="s">
         <v>9</v>
       </c>
@@ -17836,6 +17889,9 @@
       <c r="B719" s="2">
         <v>8</v>
       </c>
+      <c r="C719">
+        <v>246</v>
+      </c>
       <c r="D719" s="6" t="s">
         <v>24</v>
       </c>
@@ -17857,6 +17913,9 @@
       <c r="B720" s="2">
         <v>9</v>
       </c>
+      <c r="C720">
+        <v>213</v>
+      </c>
       <c r="D720" s="6" t="s">
         <v>24</v>
       </c>
@@ -17878,6 +17937,9 @@
       <c r="B721" s="2">
         <v>10</v>
       </c>
+      <c r="C721">
+        <v>236</v>
+      </c>
       <c r="D721" s="6" t="s">
         <v>24</v>
       </c>
@@ -17899,6 +17961,9 @@
       <c r="B722" s="2">
         <v>1</v>
       </c>
+      <c r="C722">
+        <v>438</v>
+      </c>
       <c r="D722" s="6" t="s">
         <v>9</v>
       </c>
@@ -17920,6 +17985,9 @@
       <c r="B723" s="2">
         <v>2</v>
       </c>
+      <c r="C723">
+        <v>409</v>
+      </c>
       <c r="D723" s="6" t="s">
         <v>9</v>
       </c>
@@ -17941,6 +18009,9 @@
       <c r="B724" s="2">
         <v>3</v>
       </c>
+      <c r="C724">
+        <v>392</v>
+      </c>
       <c r="D724" s="6" t="s">
         <v>9</v>
       </c>
@@ -17962,6 +18033,9 @@
       <c r="B725" s="2">
         <v>4</v>
       </c>
+      <c r="C725">
+        <v>387</v>
+      </c>
       <c r="D725" s="6" t="s">
         <v>9</v>
       </c>
@@ -17983,6 +18057,9 @@
       <c r="B726" s="2">
         <v>5</v>
       </c>
+      <c r="C726">
+        <v>420</v>
+      </c>
       <c r="D726" s="6" t="s">
         <v>9</v>
       </c>
@@ -18004,6 +18081,9 @@
       <c r="B727" s="2">
         <v>6</v>
       </c>
+      <c r="C727">
+        <v>368</v>
+      </c>
       <c r="D727" s="6" t="s">
         <v>9</v>
       </c>
@@ -18025,6 +18105,9 @@
       <c r="B728" s="2">
         <v>7</v>
       </c>
+      <c r="C728">
+        <v>451</v>
+      </c>
       <c r="D728" s="6" t="s">
         <v>9</v>
       </c>
@@ -18046,6 +18129,9 @@
       <c r="B729" s="2">
         <v>8</v>
       </c>
+      <c r="C729">
+        <v>248</v>
+      </c>
       <c r="D729" s="6" t="s">
         <v>24</v>
       </c>
@@ -18067,6 +18153,9 @@
       <c r="B730" s="2">
         <v>9</v>
       </c>
+      <c r="C730">
+        <v>214</v>
+      </c>
       <c r="D730" s="6" t="s">
         <v>24</v>
       </c>
@@ -18087,6 +18176,9 @@
       </c>
       <c r="B731" s="2">
         <v>10</v>
+      </c>
+      <c r="C731">
+        <v>235</v>
       </c>
       <c r="D731" s="6" t="s">
         <v>24</v>
